--- a/config_Release/common_lottery_server.xlsx
+++ b/config_Release/common_lottery_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\JyQipai_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TTHLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="286">
   <si>
     <t>id|</t>
   </si>
@@ -853,10 +853,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>gratitude_propriety</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>感恩有礼</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -1453,10 +1449,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>dragon_blessing</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>龙腾祈福好运来</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -1497,6 +1489,66 @@
   </si>
   <si>
     <t>5福卡</t>
+  </si>
+  <si>
+    <t>jing_bi</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_gold_sum</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>充电宝</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>美的风扇</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>华为手机</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gratitude_propriety</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragon_blessing</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>charge_any</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragon_blessing_shiwu_email</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragon_blessing_shiwu_email</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>积分抽大奖</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;&lt;summer_gift_day&gt;&gt;</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>summer_gift_day</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_id</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,107,108,110,85,86,87,88,89,109,10044,10045,111</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2013,10 +2065,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V18"/>
+  <dimension ref="A1:V19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2048,7 +2100,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -2069,16 +2121,16 @@
         <v>7</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
@@ -2098,7 +2150,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>9</v>
@@ -2141,7 +2193,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>10</v>
@@ -2184,7 +2236,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>11</v>
@@ -2349,10 +2401,10 @@
         <v>0</v>
       </c>
       <c r="C8" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>130</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>131</v>
       </c>
       <c r="E8" s="10">
         <v>1574724600</v>
@@ -2390,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E9" s="10">
         <v>1575302400</v>
@@ -2431,10 +2483,10 @@
         <v>0</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E10" s="30">
         <v>1576711800</v>
@@ -2472,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E11" s="28">
         <v>1576711800</v>
@@ -2513,10 +2565,10 @@
         <v>0</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E12" s="30">
         <v>1577316600</v>
@@ -2554,10 +2606,10 @@
         <v>0</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E13" s="30">
         <v>1577835000</v>
@@ -2595,10 +2647,10 @@
         <v>1</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E14" s="30">
         <v>1578353400</v>
@@ -2636,10 +2688,10 @@
         <v>1</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E15" s="30">
         <v>1579563000</v>
@@ -2677,10 +2729,10 @@
         <v>1</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E16" s="30">
         <v>1580772600</v>
@@ -2718,10 +2770,10 @@
         <v>1</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E17" s="30">
         <v>1581377400</v>
@@ -2758,11 +2810,11 @@
       <c r="B18" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="C18" s="10" t="s">
-        <v>259</v>
+      <c r="C18" s="15" t="s">
+        <v>277</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E18" s="10">
         <v>1581982200</v>
@@ -2789,6 +2841,47 @@
         <v>0</v>
       </c>
       <c r="M18" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="10">
+        <v>18</v>
+      </c>
+      <c r="B19" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="E19" s="10">
+        <v>1597102200</v>
+      </c>
+      <c r="F19" s="10">
+        <v>1597679999</v>
+      </c>
+      <c r="G19" s="10">
+        <v>1597679999</v>
+      </c>
+      <c r="H19" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="I19" s="10">
+        <v>18</v>
+      </c>
+      <c r="J19" s="10">
+        <v>0</v>
+      </c>
+      <c r="K19" s="10">
+        <v>16</v>
+      </c>
+      <c r="L19" s="10">
+        <v>0</v>
+      </c>
+      <c r="M19" s="10">
         <v>0</v>
       </c>
     </row>
@@ -2801,10 +2894,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD85"/>
+  <dimension ref="A1:XFD87"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B86" sqref="B86"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="D86" sqref="D86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -19922,7 +20015,7 @@
         <v>10</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D48" s="5"/>
       <c r="E48" s="5">
@@ -20477,7 +20570,7 @@
         <v>17</v>
       </c>
       <c r="C84" s="36" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D84" s="36"/>
       <c r="E84" s="36">
@@ -20492,11 +20585,42 @@
         <v>17</v>
       </c>
       <c r="C85" s="36" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D85" s="36"/>
       <c r="E85" s="36">
         <v>31</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" s="2">
+        <v>85</v>
+      </c>
+      <c r="B86" s="2">
+        <v>18</v>
+      </c>
+      <c r="C86" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="D86" s="2">
+        <v>4</v>
+      </c>
+      <c r="E86" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" s="2">
+        <v>86</v>
+      </c>
+      <c r="B87" s="2">
+        <v>18</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="E87" s="2">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -20508,10 +20632,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -20519,7 +20643,7 @@
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="16.75" style="2" customWidth="1"/>
     <col min="3" max="3" width="23.125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="22.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="53.125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.25" style="2" customWidth="1"/>
   </cols>
   <sheetData>
@@ -20588,6 +20712,23 @@
         <v>2</v>
       </c>
       <c r="E4" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>4</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>284</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="E5" s="2">
         <v>2</v>
       </c>
     </row>
@@ -20599,10 +20740,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:C18"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -20969,6 +21110,28 @@
         <v>1</v>
       </c>
     </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2">
+        <v>2000</v>
+      </c>
+      <c r="C33" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2">
+        <v>1</v>
+      </c>
+      <c r="C34" s="2">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -20980,7 +21143,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -21084,7 +21247,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -21268,7 +21431,7 @@
         <v>123</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E16" s="16">
         <v>5</v>
@@ -21285,7 +21448,7 @@
         <v>123</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E17" s="16">
         <v>5</v>
@@ -21299,7 +21462,7 @@
         <v>12</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D18" s="30">
         <v>1576711800</v>
@@ -21353,7 +21516,7 @@
         <v>123</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E21" s="16">
         <v>5</v>
@@ -21367,13 +21530,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q143"/>
+  <dimension ref="A1:Q153"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C82" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C121" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D74" sqref="D74:D83"/>
+      <selection pane="bottomRight" activeCell="G146" sqref="G146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -21407,7 +21570,7 @@
         <v>44</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>45</v>
@@ -21416,7 +21579,7 @@
         <v>46</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>47</v>
@@ -22865,10 +23028,10 @@
         <v>1</v>
       </c>
       <c r="H41" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I41" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J41" s="16"/>
       <c r="K41" s="16">
@@ -23018,7 +23181,7 @@
       </c>
       <c r="H46" s="16"/>
       <c r="I46" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J46" s="16"/>
       <c r="K46" s="16">
@@ -23076,7 +23239,7 @@
       </c>
       <c r="H48" s="16"/>
       <c r="I48" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J48" s="16"/>
       <c r="K48" s="16">
@@ -23105,7 +23268,7 @@
       </c>
       <c r="H49" s="16"/>
       <c r="I49" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J49" s="16"/>
       <c r="K49" s="16">
@@ -23134,7 +23297,7 @@
       </c>
       <c r="H50" s="16"/>
       <c r="I50" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J50" s="16"/>
       <c r="K50" s="16">
@@ -23162,10 +23325,10 @@
         <v>1</v>
       </c>
       <c r="H51" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I51" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J51" s="16"/>
       <c r="K51" s="16">
@@ -23193,10 +23356,10 @@
         <v>1</v>
       </c>
       <c r="H52" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="I52" s="21" t="s">
         <v>133</v>
-      </c>
-      <c r="I52" s="21" t="s">
-        <v>134</v>
       </c>
       <c r="J52" s="16"/>
       <c r="K52" s="16">
@@ -23224,7 +23387,7 @@
         <v>1</v>
       </c>
       <c r="H53" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I53" s="16" t="s">
         <v>50</v>
@@ -23255,10 +23418,10 @@
         <v>1</v>
       </c>
       <c r="H54" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I54" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J54" s="16"/>
       <c r="K54" s="16">
@@ -23286,10 +23449,10 @@
         <v>1</v>
       </c>
       <c r="H55" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="I55" s="21" t="s">
         <v>133</v>
-      </c>
-      <c r="I55" s="21" t="s">
-        <v>134</v>
       </c>
       <c r="J55" s="16"/>
       <c r="K55" s="16">
@@ -23320,7 +23483,7 @@
       </c>
       <c r="H56" s="16"/>
       <c r="I56" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J56" s="16"/>
       <c r="K56" s="16">
@@ -23351,7 +23514,7 @@
       </c>
       <c r="H57" s="16"/>
       <c r="I57" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J57" s="16"/>
       <c r="K57" s="16">
@@ -23382,7 +23545,7 @@
       </c>
       <c r="H58" s="16"/>
       <c r="I58" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J58" s="16"/>
       <c r="K58" s="16">
@@ -23413,7 +23576,7 @@
       </c>
       <c r="H59" s="16"/>
       <c r="I59" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J59" s="16"/>
       <c r="K59" s="16">
@@ -23444,7 +23607,7 @@
       </c>
       <c r="H60" s="16"/>
       <c r="I60" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J60" s="16"/>
       <c r="K60" s="16">
@@ -23474,10 +23637,10 @@
         <v>1</v>
       </c>
       <c r="H61" s="21" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I61" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J61" s="16"/>
       <c r="K61" s="16">
@@ -23508,7 +23671,7 @@
       </c>
       <c r="H62" s="16"/>
       <c r="I62" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J62" s="16"/>
       <c r="K62" s="16">
@@ -23539,7 +23702,7 @@
       </c>
       <c r="H63" s="16"/>
       <c r="I63" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J63" s="16"/>
       <c r="K63" s="16">
@@ -23568,7 +23731,7 @@
       </c>
       <c r="H64" s="16"/>
       <c r="I64" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J64" s="16"/>
       <c r="K64" s="16">
@@ -23597,7 +23760,7 @@
       </c>
       <c r="H65" s="16"/>
       <c r="I65" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J65" s="16"/>
       <c r="K65" s="16">
@@ -23626,7 +23789,7 @@
       </c>
       <c r="H66" s="16"/>
       <c r="I66" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J66" s="16"/>
       <c r="K66" s="16">
@@ -23655,7 +23818,7 @@
       </c>
       <c r="H67" s="16"/>
       <c r="I67" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J67" s="16"/>
       <c r="K67" s="16">
@@ -23684,7 +23847,7 @@
       </c>
       <c r="H68" s="16"/>
       <c r="I68" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J68" s="16"/>
       <c r="K68" s="16">
@@ -23712,10 +23875,10 @@
         <v>1</v>
       </c>
       <c r="H69" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I69" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J69" s="16"/>
       <c r="K69" s="16">
@@ -23743,10 +23906,10 @@
         <v>1</v>
       </c>
       <c r="H70" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I70" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J70" s="16"/>
       <c r="K70" s="16">
@@ -23774,10 +23937,10 @@
         <v>1</v>
       </c>
       <c r="H71" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I71" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J71" s="16"/>
       <c r="K71" s="16">
@@ -23805,10 +23968,10 @@
         <v>1</v>
       </c>
       <c r="H72" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I72" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J72" s="16"/>
       <c r="K72" s="16">
@@ -23836,10 +23999,10 @@
         <v>1</v>
       </c>
       <c r="H73" s="21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I73" s="21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J73" s="16"/>
       <c r="K73" s="16">
@@ -23869,10 +24032,10 @@
         <v>7</v>
       </c>
       <c r="H74" s="32" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I74" s="32" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J74" s="5"/>
       <c r="K74" s="5">
@@ -23902,10 +24065,10 @@
         <v>6</v>
       </c>
       <c r="H75" s="32" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I75" s="32" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J75" s="5"/>
       <c r="K75" s="5">
@@ -23935,10 +24098,10 @@
         <v>5</v>
       </c>
       <c r="H76" s="32" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I76" s="32" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J76" s="5"/>
       <c r="K76" s="5">
@@ -23968,10 +24131,10 @@
         <v>5</v>
       </c>
       <c r="H77" s="32" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I77" s="32" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J77" s="5"/>
       <c r="K77" s="5">
@@ -24001,10 +24164,10 @@
         <v>1</v>
       </c>
       <c r="H78" s="32" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I78" s="32" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J78" s="5"/>
       <c r="K78" s="5">
@@ -24034,10 +24197,10 @@
         <v>7</v>
       </c>
       <c r="H79" s="32" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I79" s="32" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J79" s="5"/>
       <c r="K79" s="5">
@@ -24067,10 +24230,10 @@
         <v>6</v>
       </c>
       <c r="H80" s="32" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I80" s="32" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J80" s="5"/>
       <c r="K80" s="5">
@@ -24100,10 +24263,10 @@
         <v>5</v>
       </c>
       <c r="H81" s="32" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I81" s="32" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J81" s="5"/>
       <c r="K81" s="5">
@@ -24133,10 +24296,10 @@
         <v>5</v>
       </c>
       <c r="H82" s="32" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I82" s="32" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J82" s="5"/>
       <c r="K82" s="5">
@@ -24166,10 +24329,10 @@
         <v>1</v>
       </c>
       <c r="H83" s="32" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I83" s="32" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J83" s="5"/>
       <c r="K83" s="5">
@@ -24198,7 +24361,7 @@
       </c>
       <c r="H84" s="16"/>
       <c r="I84" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J84" s="16"/>
       <c r="K84" s="16">
@@ -24227,7 +24390,7 @@
       </c>
       <c r="H85" s="16"/>
       <c r="I85" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J85" s="16"/>
       <c r="K85" s="16">
@@ -24256,7 +24419,7 @@
       </c>
       <c r="H86" s="16"/>
       <c r="I86" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J86" s="16"/>
       <c r="K86" s="16">
@@ -24285,7 +24448,7 @@
       </c>
       <c r="H87" s="16"/>
       <c r="I87" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J87" s="16"/>
       <c r="K87" s="16">
@@ -24314,7 +24477,7 @@
       </c>
       <c r="H88" s="16"/>
       <c r="I88" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J88" s="16"/>
       <c r="K88" s="16">
@@ -24342,10 +24505,10 @@
         <v>1</v>
       </c>
       <c r="H89" s="21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I89" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J89" s="16"/>
       <c r="K89" s="16">
@@ -24373,10 +24536,10 @@
         <v>1</v>
       </c>
       <c r="H90" s="21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I90" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J90" s="16"/>
       <c r="K90" s="16">
@@ -24404,10 +24567,10 @@
         <v>1</v>
       </c>
       <c r="H91" s="21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I91" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J91" s="16"/>
       <c r="K91" s="16">
@@ -24435,10 +24598,10 @@
         <v>1</v>
       </c>
       <c r="H92" s="21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I92" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J92" s="16"/>
       <c r="K92" s="16">
@@ -24466,10 +24629,10 @@
         <v>1</v>
       </c>
       <c r="H93" s="21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I93" s="21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J93" s="16"/>
       <c r="K93" s="16">
@@ -24498,7 +24661,7 @@
       </c>
       <c r="H94" s="16"/>
       <c r="I94" s="21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J94" s="16"/>
       <c r="K94" s="16">
@@ -24527,7 +24690,7 @@
       </c>
       <c r="H95" s="16"/>
       <c r="I95" s="21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J95" s="16"/>
       <c r="K95" s="16">
@@ -24556,7 +24719,7 @@
       </c>
       <c r="H96" s="16"/>
       <c r="I96" s="21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J96" s="16"/>
       <c r="K96" s="16">
@@ -24585,7 +24748,7 @@
       </c>
       <c r="H97" s="16"/>
       <c r="I97" s="21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J97" s="16"/>
       <c r="K97" s="16">
@@ -24614,7 +24777,7 @@
       </c>
       <c r="H98" s="16"/>
       <c r="I98" s="21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J98" s="16"/>
       <c r="K98" s="16">
@@ -24642,10 +24805,10 @@
         <v>1</v>
       </c>
       <c r="H99" s="21" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I99" s="21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J99" s="16"/>
       <c r="K99" s="16">
@@ -24673,10 +24836,10 @@
         <v>1</v>
       </c>
       <c r="H100" s="21" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I100" s="21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J100" s="16"/>
       <c r="K100" s="16">
@@ -24704,10 +24867,10 @@
         <v>1</v>
       </c>
       <c r="H101" s="21" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I101" s="21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J101" s="16"/>
       <c r="K101" s="16">
@@ -24735,10 +24898,10 @@
         <v>1</v>
       </c>
       <c r="H102" s="21" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I102" s="21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J102" s="16"/>
       <c r="K102" s="16">
@@ -24766,10 +24929,10 @@
         <v>1</v>
       </c>
       <c r="H103" s="21" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I103" s="21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J103" s="16"/>
       <c r="K103" s="16">
@@ -24798,7 +24961,7 @@
       </c>
       <c r="H104" s="16"/>
       <c r="I104" s="21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J104" s="16"/>
       <c r="K104" s="16">
@@ -24827,7 +24990,7 @@
       </c>
       <c r="H105" s="16"/>
       <c r="I105" s="21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J105" s="16"/>
       <c r="K105" s="16">
@@ -24856,7 +25019,7 @@
       </c>
       <c r="H106" s="16"/>
       <c r="I106" s="21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J106" s="16"/>
       <c r="K106" s="16">
@@ -24885,7 +25048,7 @@
       </c>
       <c r="H107" s="16"/>
       <c r="I107" s="21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J107" s="16"/>
       <c r="K107" s="16">
@@ -24914,7 +25077,7 @@
       </c>
       <c r="H108" s="16"/>
       <c r="I108" s="21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J108" s="16"/>
       <c r="K108" s="16">
@@ -24943,7 +25106,7 @@
       </c>
       <c r="H109" s="16"/>
       <c r="I109" s="21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J109" s="16"/>
       <c r="K109" s="16">
@@ -24972,7 +25135,7 @@
       </c>
       <c r="H110" s="16"/>
       <c r="I110" s="21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J110" s="16"/>
       <c r="K110" s="16">
@@ -25001,7 +25164,7 @@
       </c>
       <c r="H111" s="16"/>
       <c r="I111" s="21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J111" s="16"/>
       <c r="K111" s="16">
@@ -25029,10 +25192,10 @@
         <v>1</v>
       </c>
       <c r="H112" s="21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I112" s="21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J112" s="16"/>
       <c r="K112" s="16">
@@ -25060,10 +25223,10 @@
         <v>1</v>
       </c>
       <c r="H113" s="21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I113" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J113" s="16"/>
       <c r="K113" s="16">
@@ -25093,10 +25256,10 @@
         <v>1</v>
       </c>
       <c r="H114" s="21" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I114" s="21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J114" s="16"/>
       <c r="K114" s="16">
@@ -25126,10 +25289,10 @@
         <v>1</v>
       </c>
       <c r="H115" s="21" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I115" s="21" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J115" s="16"/>
       <c r="K115" s="16">
@@ -25159,10 +25322,10 @@
         <v>1</v>
       </c>
       <c r="H116" s="21" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I116" s="21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J116" s="16"/>
       <c r="K116" s="16">
@@ -25192,10 +25355,10 @@
         <v>1</v>
       </c>
       <c r="H117" s="21" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I117" s="21" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J117" s="16"/>
       <c r="K117" s="16">
@@ -25225,10 +25388,10 @@
         <v>1</v>
       </c>
       <c r="H118" s="21" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I118" s="21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J118" s="16"/>
       <c r="K118" s="16">
@@ -25258,10 +25421,10 @@
         <v>1</v>
       </c>
       <c r="H119" s="21" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I119" s="21" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J119" s="16"/>
       <c r="K119" s="16">
@@ -25291,10 +25454,10 @@
         <v>1</v>
       </c>
       <c r="H120" s="21" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I120" s="21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J120" s="16"/>
       <c r="K120" s="16">
@@ -25324,10 +25487,10 @@
         <v>1</v>
       </c>
       <c r="H121" s="21" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I121" s="21" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J121" s="16"/>
       <c r="K121" s="16">
@@ -25357,10 +25520,10 @@
         <v>1</v>
       </c>
       <c r="H122" s="21" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I122" s="21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J122" s="16"/>
       <c r="K122" s="16">
@@ -25390,10 +25553,10 @@
         <v>1</v>
       </c>
       <c r="H123" s="21" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I123" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J123" s="16"/>
       <c r="K123" s="16">
@@ -25422,7 +25585,7 @@
       </c>
       <c r="H124" s="32"/>
       <c r="I124" s="32" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J124" s="5"/>
       <c r="K124" s="5">
@@ -25451,7 +25614,7 @@
       </c>
       <c r="H125" s="5"/>
       <c r="I125" s="32" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J125" s="5"/>
       <c r="K125" s="5">
@@ -25480,7 +25643,7 @@
       </c>
       <c r="H126" s="5"/>
       <c r="I126" s="32" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J126" s="5"/>
       <c r="K126" s="5">
@@ -25509,7 +25672,7 @@
       </c>
       <c r="H127" s="5"/>
       <c r="I127" s="32" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J127" s="5"/>
       <c r="K127" s="5">
@@ -25538,7 +25701,7 @@
       </c>
       <c r="H128" s="5"/>
       <c r="I128" s="32" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J128" s="5"/>
       <c r="K128" s="5">
@@ -25567,7 +25730,7 @@
       </c>
       <c r="H129" s="5"/>
       <c r="I129" s="32" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J129" s="5"/>
       <c r="K129" s="5">
@@ -25595,10 +25758,10 @@
         <v>6</v>
       </c>
       <c r="H130" s="32" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I130" s="32" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J130" s="5"/>
       <c r="K130" s="5">
@@ -25626,10 +25789,10 @@
         <v>5</v>
       </c>
       <c r="H131" s="32" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I131" s="32" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J131" s="5"/>
       <c r="K131" s="5">
@@ -25657,10 +25820,10 @@
         <v>5</v>
       </c>
       <c r="H132" s="32" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I132" s="32" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J132" s="5"/>
       <c r="K132" s="5">
@@ -25688,10 +25851,10 @@
         <v>1</v>
       </c>
       <c r="H133" s="32" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I133" s="32" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J133" s="5"/>
       <c r="K133" s="5">
@@ -25718,7 +25881,7 @@
         <v>1</v>
       </c>
       <c r="I134" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K134" s="2">
         <v>1</v>
@@ -25744,7 +25907,7 @@
         <v>1</v>
       </c>
       <c r="I135" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K135" s="2">
         <v>1</v>
@@ -25770,7 +25933,7 @@
         <v>1</v>
       </c>
       <c r="I136" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K136" s="2">
         <v>1</v>
@@ -25796,7 +25959,7 @@
         <v>1</v>
       </c>
       <c r="I137" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K137" s="2">
         <v>1</v>
@@ -25822,7 +25985,7 @@
         <v>1</v>
       </c>
       <c r="I138" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K138" s="2">
         <v>1</v>
@@ -25848,7 +26011,7 @@
         <v>1</v>
       </c>
       <c r="I139" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K139" s="2">
         <v>1</v>
@@ -25874,10 +26037,10 @@
         <v>1</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>258</v>
+        <v>279</v>
       </c>
       <c r="I140" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K140" s="2">
         <v>1</v>
@@ -25903,10 +26066,10 @@
         <v>1</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I141" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K141" s="2">
         <v>1</v>
@@ -25932,10 +26095,10 @@
         <v>1</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I142" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K142" s="2">
         <v>1</v>
@@ -25961,12 +26124,272 @@
         <v>1</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="I143" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K143" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A144" s="16">
+        <v>143</v>
+      </c>
+      <c r="B144" s="2">
+        <v>16</v>
+      </c>
+      <c r="C144" s="2">
+        <v>1</v>
+      </c>
+      <c r="D144" s="2">
+        <v>2</v>
+      </c>
+      <c r="F144" s="2">
+        <v>157</v>
+      </c>
+      <c r="G144" s="2">
+        <v>70</v>
+      </c>
+      <c r="I144" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="K144" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A145" s="16">
+        <v>144</v>
+      </c>
+      <c r="B145" s="2">
+        <v>16</v>
+      </c>
+      <c r="C145" s="2">
+        <v>2</v>
+      </c>
+      <c r="D145" s="2">
+        <v>10</v>
+      </c>
+      <c r="F145" s="2">
+        <v>158</v>
+      </c>
+      <c r="G145" s="2">
+        <v>60</v>
+      </c>
+      <c r="I145" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="K145" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A146" s="16">
+        <v>145</v>
+      </c>
+      <c r="B146" s="2">
+        <v>16</v>
+      </c>
+      <c r="C146" s="2">
+        <v>3</v>
+      </c>
+      <c r="D146" s="2">
+        <v>20</v>
+      </c>
+      <c r="F146" s="2">
+        <v>159</v>
+      </c>
+      <c r="G146" s="2">
+        <v>50</v>
+      </c>
+      <c r="I146" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="K146" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A147" s="16">
+        <v>146</v>
+      </c>
+      <c r="B147" s="2">
+        <v>16</v>
+      </c>
+      <c r="C147" s="2">
+        <v>4</v>
+      </c>
+      <c r="D147" s="2">
+        <v>50</v>
+      </c>
+      <c r="F147" s="2">
+        <v>160</v>
+      </c>
+      <c r="G147" s="2">
+        <v>50</v>
+      </c>
+      <c r="I147" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="K147" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A148" s="16">
+        <v>147</v>
+      </c>
+      <c r="B148" s="2">
+        <v>16</v>
+      </c>
+      <c r="C148" s="2">
+        <v>5</v>
+      </c>
+      <c r="D148" s="2">
+        <v>100</v>
+      </c>
+      <c r="F148" s="2">
+        <v>161</v>
+      </c>
+      <c r="G148" s="2">
+        <v>50</v>
+      </c>
+      <c r="I148" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="K148" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A149" s="16">
+        <v>148</v>
+      </c>
+      <c r="B149" s="2">
+        <v>16</v>
+      </c>
+      <c r="C149" s="2">
+        <v>6</v>
+      </c>
+      <c r="D149" s="2">
+        <v>200</v>
+      </c>
+      <c r="F149" s="2">
+        <v>162</v>
+      </c>
+      <c r="G149" s="2">
+        <v>70</v>
+      </c>
+      <c r="I149" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="K149" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A150" s="16">
+        <v>149</v>
+      </c>
+      <c r="B150" s="2">
+        <v>16</v>
+      </c>
+      <c r="C150" s="2">
+        <v>7</v>
+      </c>
+      <c r="D150" s="2">
+        <v>500</v>
+      </c>
+      <c r="F150" s="2">
+        <v>163</v>
+      </c>
+      <c r="G150" s="2">
+        <v>60</v>
+      </c>
+      <c r="I150" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="K150" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A151" s="16">
+        <v>150</v>
+      </c>
+      <c r="B151" s="2">
+        <v>16</v>
+      </c>
+      <c r="C151" s="2">
+        <v>8</v>
+      </c>
+      <c r="D151" s="2">
+        <v>1000</v>
+      </c>
+      <c r="F151" s="2">
+        <v>164</v>
+      </c>
+      <c r="G151" s="2">
+        <v>50</v>
+      </c>
+      <c r="I151" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="K151" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A152" s="16">
+        <v>151</v>
+      </c>
+      <c r="B152" s="2">
+        <v>16</v>
+      </c>
+      <c r="C152" s="2">
+        <v>9</v>
+      </c>
+      <c r="D152" s="2">
+        <v>8000</v>
+      </c>
+      <c r="F152" s="2">
+        <v>165</v>
+      </c>
+      <c r="G152" s="2">
+        <v>50</v>
+      </c>
+      <c r="I152" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="K152" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A153" s="16">
+        <v>152</v>
+      </c>
+      <c r="B153" s="2">
+        <v>16</v>
+      </c>
+      <c r="C153" s="2">
+        <v>10</v>
+      </c>
+      <c r="D153" s="2">
+        <v>35000</v>
+      </c>
+      <c r="F153" s="2">
+        <v>166</v>
+      </c>
+      <c r="G153" s="2">
+        <v>1</v>
+      </c>
+      <c r="I153" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="K153" s="2">
         <v>1</v>
       </c>
     </row>
@@ -25982,7 +26405,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -25996,10 +26419,10 @@
         <v>13</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -26319,13 +26742,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G157"/>
+  <dimension ref="A1:G167"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C93" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C144" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H56" sqref="H56"/>
+      <selection pane="bottomRight" activeCell="B167" sqref="B165:C167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -26822,7 +27245,7 @@
         <v>32</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D33" s="16" t="s">
         <v>70</v>
@@ -26839,7 +27262,7 @@
         <v>33</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D34" s="16" t="s">
         <v>70</v>
@@ -26856,7 +27279,7 @@
         <v>34</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D35" s="16" t="s">
         <v>70</v>
@@ -26873,7 +27296,7 @@
         <v>35</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D36" s="16" t="s">
         <v>70</v>
@@ -26890,7 +27313,7 @@
         <v>36</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D37" s="16" t="s">
         <v>70</v>
@@ -27015,7 +27438,7 @@
         <v>70</v>
       </c>
       <c r="E46" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F46" s="26"/>
     </row>
@@ -27303,7 +27726,7 @@
         <v>64</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D65" s="16"/>
       <c r="E65" s="16"/>
@@ -27316,7 +27739,7 @@
         <v>65</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D66" s="16"/>
       <c r="E66" s="16"/>
@@ -27329,7 +27752,7 @@
         <v>66</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D67" s="16"/>
       <c r="E67" s="16"/>
@@ -27342,7 +27765,7 @@
         <v>67</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D68" s="16"/>
       <c r="E68" s="16"/>
@@ -27355,7 +27778,7 @@
         <v>68</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D69" s="16"/>
       <c r="E69" s="16"/>
@@ -27368,7 +27791,7 @@
         <v>69</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D70" s="16" t="s">
         <v>68</v>
@@ -27385,7 +27808,7 @@
         <v>70</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D71" s="16" t="s">
         <v>70</v>
@@ -27402,7 +27825,7 @@
         <v>71</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D72" s="16" t="s">
         <v>68</v>
@@ -27419,10 +27842,10 @@
         <v>72</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D73" s="21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E73" s="16">
         <v>100000</v>
@@ -27436,7 +27859,7 @@
         <v>73</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D74" s="16" t="s">
         <v>70</v>
@@ -27453,7 +27876,7 @@
         <v>74</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D75" s="16"/>
       <c r="E75" s="16"/>
@@ -27466,7 +27889,7 @@
         <v>75</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D76" s="16" t="s">
         <v>68</v>
@@ -27483,7 +27906,7 @@
         <v>76</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D77" s="16" t="s">
         <v>70</v>
@@ -27500,7 +27923,7 @@
         <v>77</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D78" s="16" t="s">
         <v>68</v>
@@ -27517,7 +27940,7 @@
         <v>78</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D79" s="16" t="s">
         <v>70</v>
@@ -27534,7 +27957,7 @@
         <v>79</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D80" s="16" t="s">
         <v>70</v>
@@ -27551,7 +27974,7 @@
         <v>80</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D81" s="16" t="s">
         <v>70</v>
@@ -27568,7 +27991,7 @@
         <v>81</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D82" s="16" t="s">
         <v>70</v>
@@ -27585,7 +28008,7 @@
         <v>82</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D83" s="16"/>
       <c r="E83" s="16"/>
@@ -27598,7 +28021,7 @@
         <v>83</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D84" s="16"/>
       <c r="E84" s="16"/>
@@ -27611,7 +28034,7 @@
         <v>84</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D85" s="16"/>
       <c r="E85" s="16"/>
@@ -27624,7 +28047,7 @@
         <v>85</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D86" s="16"/>
       <c r="E86" s="16"/>
@@ -27637,7 +28060,7 @@
         <v>86</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D87" s="16"/>
       <c r="E87" s="16"/>
@@ -27650,7 +28073,7 @@
         <v>87</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
@@ -27663,7 +28086,7 @@
         <v>88</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
@@ -27676,7 +28099,7 @@
         <v>89</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
@@ -27702,7 +28125,7 @@
         <v>91</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
@@ -27715,7 +28138,7 @@
         <v>92</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D93" s="5"/>
       <c r="E93" s="5"/>
@@ -27728,7 +28151,7 @@
         <v>93</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D94" s="5"/>
       <c r="E94" s="5"/>
@@ -27741,7 +28164,7 @@
         <v>94</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D95" s="5"/>
       <c r="E95" s="5"/>
@@ -27754,7 +28177,7 @@
         <v>95</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D96" s="5"/>
       <c r="E96" s="5"/>
@@ -27767,7 +28190,7 @@
         <v>96</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D97" s="5"/>
       <c r="E97" s="5"/>
@@ -27780,7 +28203,7 @@
         <v>97</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D98" s="16" t="s">
         <v>68</v>
@@ -27797,7 +28220,7 @@
         <v>98</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D99" s="16" t="s">
         <v>68</v>
@@ -27814,7 +28237,7 @@
         <v>99</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D100" s="16" t="s">
         <v>68</v>
@@ -27831,7 +28254,7 @@
         <v>100</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D101" s="16" t="s">
         <v>70</v>
@@ -27848,7 +28271,7 @@
         <v>101</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D102" s="16" t="s">
         <v>70</v>
@@ -27865,7 +28288,7 @@
         <v>102</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D103" s="16"/>
       <c r="E103" s="16"/>
@@ -27878,7 +28301,7 @@
         <v>103</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D104" s="16"/>
       <c r="E104" s="16"/>
@@ -27891,7 +28314,7 @@
         <v>104</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D105" s="16"/>
       <c r="E105" s="16"/>
@@ -27904,7 +28327,7 @@
         <v>105</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D106" s="16"/>
       <c r="E106" s="16"/>
@@ -27917,7 +28340,7 @@
         <v>106</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D107" s="16"/>
       <c r="E107" s="16"/>
@@ -28005,7 +28428,7 @@
         <v>112</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D113" s="16"/>
       <c r="E113" s="16"/>
@@ -28018,7 +28441,7 @@
         <v>113</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D114" s="16"/>
       <c r="E114" s="16"/>
@@ -28031,7 +28454,7 @@
         <v>114</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D115" s="16"/>
       <c r="E115" s="16"/>
@@ -28044,7 +28467,7 @@
         <v>115</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D116" s="16"/>
       <c r="E116" s="16"/>
@@ -28057,7 +28480,7 @@
         <v>116</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D117" s="16"/>
       <c r="E117" s="16"/>
@@ -28071,7 +28494,7 @@
       </c>
       <c r="C118" s="16"/>
       <c r="D118" s="21" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E118" s="16">
         <v>3000</v>
@@ -28176,7 +28599,7 @@
       </c>
       <c r="C125" s="16"/>
       <c r="D125" s="21" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E125" s="16">
         <v>20000</v>
@@ -28190,7 +28613,7 @@
         <v>125</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D126" s="16"/>
       <c r="E126" s="16"/>
@@ -28203,7 +28626,7 @@
         <v>126</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D127" s="16"/>
       <c r="E127" s="16"/>
@@ -28216,7 +28639,7 @@
         <v>127</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D128" s="16"/>
       <c r="E128" s="16"/>
@@ -28229,7 +28652,7 @@
         <v>128</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D129" s="16"/>
       <c r="E129" s="16"/>
@@ -28242,7 +28665,7 @@
         <v>129</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D130" s="16"/>
       <c r="E130" s="16"/>
@@ -28255,7 +28678,7 @@
         <v>130</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D131" s="16"/>
       <c r="E131" s="16"/>
@@ -28268,7 +28691,7 @@
         <v>131</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D132" s="16"/>
       <c r="E132" s="16"/>
@@ -28281,7 +28704,7 @@
         <v>132</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D133" s="16"/>
       <c r="E133" s="16"/>
@@ -28294,7 +28717,7 @@
         <v>133</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D134" s="16"/>
       <c r="E134" s="16"/>
@@ -28307,7 +28730,7 @@
         <v>134</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D135" s="16"/>
       <c r="E135" s="16"/>
@@ -28320,7 +28743,7 @@
         <v>135</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D136" s="16"/>
       <c r="E136" s="16"/>
@@ -28333,7 +28756,7 @@
         <v>136</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D137" s="16"/>
       <c r="E137" s="16"/>
@@ -28347,7 +28770,7 @@
       </c>
       <c r="C138" s="5"/>
       <c r="D138" s="32" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E138" s="5">
         <v>1000</v>
@@ -28362,7 +28785,7 @@
       </c>
       <c r="C139" s="5"/>
       <c r="D139" s="32" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E139" s="5">
         <v>3000</v>
@@ -28377,7 +28800,7 @@
       </c>
       <c r="C140" s="5"/>
       <c r="D140" s="32" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E140" s="5">
         <v>100</v>
@@ -28392,7 +28815,7 @@
       </c>
       <c r="C141" s="5"/>
       <c r="D141" s="32" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E141" s="5">
         <v>250</v>
@@ -28407,7 +28830,7 @@
       </c>
       <c r="C142" s="5"/>
       <c r="D142" s="32" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E142" s="5">
         <v>500</v>
@@ -28422,7 +28845,7 @@
       </c>
       <c r="C143" s="5"/>
       <c r="D143" s="32" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E143" s="5">
         <v>1314</v>
@@ -28436,7 +28859,7 @@
         <v>143</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D144" s="5"/>
       <c r="E144" s="5"/>
@@ -28449,7 +28872,7 @@
         <v>144</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D145" s="5"/>
       <c r="E145" s="5"/>
@@ -28462,7 +28885,7 @@
         <v>145</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D146" s="5"/>
       <c r="E146" s="5"/>
@@ -28475,7 +28898,7 @@
         <v>146</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D147" s="5"/>
       <c r="E147" s="5"/>
@@ -28489,7 +28912,7 @@
       </c>
       <c r="C148" s="16"/>
       <c r="D148" s="16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E148" s="16">
         <v>1000</v>
@@ -28504,7 +28927,7 @@
       </c>
       <c r="C149" s="16"/>
       <c r="D149" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E149" s="16">
         <v>30</v>
@@ -28519,7 +28942,7 @@
       </c>
       <c r="C150" s="16"/>
       <c r="D150" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E150" s="16">
         <v>100</v>
@@ -28534,7 +28957,7 @@
       </c>
       <c r="C151" s="16"/>
       <c r="D151" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E151" s="16">
         <v>250</v>
@@ -28549,7 +28972,7 @@
       </c>
       <c r="C152" s="16"/>
       <c r="D152" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E152" s="16">
         <v>500</v>
@@ -28564,7 +28987,7 @@
       </c>
       <c r="C153" s="16"/>
       <c r="D153" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E153" s="16">
         <v>2500</v>
@@ -28578,7 +29001,7 @@
         <v>153</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D154" s="16"/>
       <c r="E154" s="16"/>
@@ -28591,7 +29014,7 @@
         <v>154</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D155" s="16"/>
       <c r="E155" s="16"/>
@@ -28604,7 +29027,7 @@
         <v>155</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D156" s="16"/>
       <c r="E156" s="16"/>
@@ -28617,10 +29040,144 @@
         <v>156</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D157" s="16"/>
       <c r="E157" s="16"/>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A158" s="2">
+        <v>157</v>
+      </c>
+      <c r="B158" s="2">
+        <v>157</v>
+      </c>
+      <c r="D158" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="E158" s="2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A159" s="2">
+        <v>158</v>
+      </c>
+      <c r="B159" s="2">
+        <v>158</v>
+      </c>
+      <c r="D159" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="E159" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A160" s="2">
+        <v>159</v>
+      </c>
+      <c r="B160" s="2">
+        <v>159</v>
+      </c>
+      <c r="D160" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="E160" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A161" s="2">
+        <v>160</v>
+      </c>
+      <c r="B161" s="2">
+        <v>160</v>
+      </c>
+      <c r="D161" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="E161" s="2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A162" s="2">
+        <v>161</v>
+      </c>
+      <c r="B162" s="2">
+        <v>161</v>
+      </c>
+      <c r="D162" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="E162" s="2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A163" s="2">
+        <v>162</v>
+      </c>
+      <c r="B163" s="2">
+        <v>162</v>
+      </c>
+      <c r="D163" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="E163" s="2">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A164" s="2">
+        <v>163</v>
+      </c>
+      <c r="B164" s="2">
+        <v>163</v>
+      </c>
+      <c r="D164" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="E164" s="2">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A165" s="2">
+        <v>164</v>
+      </c>
+      <c r="B165" s="2">
+        <v>164</v>
+      </c>
+      <c r="C165" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="D165" s="23"/>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A166" s="2">
+        <v>165</v>
+      </c>
+      <c r="B166" s="2">
+        <v>165</v>
+      </c>
+      <c r="C166" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="D166" s="23"/>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A167" s="2">
+        <v>166</v>
+      </c>
+      <c r="B167" s="2">
+        <v>166</v>
+      </c>
+      <c r="C167" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="D167" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
